--- a/C8-procesos/Grupo-8 GRUPO.xlsx
+++ b/C8-procesos/Grupo-8 GRUPO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDREA\Desktop\developer\introduccion_a_la_informatica\C8-procesos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDREA\Desktop\Cursada\Clase_8_Procesos\Andrea_Orozco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="SRTF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Procesos</t>
   </si>
@@ -53,12 +53,15 @@
   <si>
     <t>SRTF</t>
   </si>
+  <si>
+    <t>RR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -78,8 +81,14 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +137,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -156,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -188,6 +221,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,7 +464,7 @@
   <dimension ref="A1:T998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A26" sqref="A26:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1139,70 +1188,93 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="A26" s="18" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="A27" s="19">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19">
+        <v>2</v>
+      </c>
+      <c r="C27" s="19">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19">
+        <v>4</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5</v>
+      </c>
+      <c r="F27" s="19">
+        <v>6</v>
+      </c>
+      <c r="G27" s="19">
+        <v>7</v>
+      </c>
+      <c r="H27" s="19">
+        <v>8</v>
+      </c>
+      <c r="I27" s="19">
+        <v>9</v>
+      </c>
+      <c r="J27" s="19">
+        <v>10</v>
+      </c>
+      <c r="K27" s="19">
+        <v>11</v>
+      </c>
+      <c r="L27" s="19">
+        <v>12</v>
+      </c>
+      <c r="M27" s="19">
+        <v>13</v>
+      </c>
+      <c r="N27" s="19">
+        <v>14</v>
+      </c>
+      <c r="O27" s="19">
+        <v>15</v>
+      </c>
+      <c r="P27" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>17</v>
+      </c>
+      <c r="R27" s="19">
+        <v>18</v>
+      </c>
+      <c r="S27" s="19">
+        <v>19</v>
+      </c>
+      <c r="T27" s="19">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="23"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
